--- a/Proyecto_Final/Cotizacion_Python.xlsx
+++ b/Proyecto_Final/Cotizacion_Python.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elect\Dropbox\PC\Desktop\Vainas\UPB\Semestre 7 - 20231\Python\Mío\Entregables\Entregables\Proyecto_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402DBDA-0DD1-4049-8B0E-BEBB38B03747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4387337C-2135-449A-B847-33736D58E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{EBA0C595-F91D-4069-80EC-7FFE21B59DE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EBA0C595-F91D-4069-80EC-7FFE21B59DE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cotización" sheetId="3" r:id="rId1"/>
+    <sheet name="Total" sheetId="4" r:id="rId1"/>
     <sheet name="Cotizaciones" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -21,12 +21,6 @@
     <definedName name="Banda_Transportadora">Cotizaciones!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Producto</t>
   </si>
@@ -84,12 +78,6 @@
   </si>
   <si>
     <t>https://articulo.mercadolibre.com.co/MCO-1340509308-pantalla-lcd-tft-touch-35-320x480px-raspberry-pi-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=ddc25455-99ed-469f-89c5-f1e8fac4b9f2&amp;gid=1&amp;pid=2</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Suma de Precio</t>
   </si>
   <si>
     <t>PANTALLA LCD TF     (Opción 1)</t>
@@ -165,25 +153,45 @@
     <t>Camera(clasifiación) por Argumedo Jaramillo De la Ossa</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Cubos Didácticos Letras Números Madera 3cm3</t>
-  </si>
-  <si>
-    <t>Suma de Precio Total</t>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Banda transportadora con extensiones robótica chasis</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Servomotor </t>
+  </si>
+  <si>
+    <t>Tarjeta Raspberry 
+Pi Pico W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla LCD TF  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla de Cotización para Proyecto Final </t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +253,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -402,6 +430,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -414,7 +455,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,11 +466,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,28 +503,27 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +552,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,7 +590,173 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{BFF667D3-F7D7-4A69-BFE2-C3969E0E8397}"/>
     <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{1C5F0BB0-749C-4206-BFB1-0EB1578AD947}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1346,21 +1571,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1375,6 +1585,92 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18E4753-9013-F73C-4FA7-F4F30A523A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="1047750"/>
+          <a:ext cx="3190875" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Nota:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Los precios expuestos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> no contemplan gastos adicionales tale como el envío.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1469,578 +1765,86 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jesús Gabriel Santana Mestra" refreshedDate="45015.87723460648" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{658D0097-15D8-48FC-9062-60983D20F23D}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C5:E8" sheet="Cotizaciones"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Producto" numFmtId="0">
-      <sharedItems count="3">
-        <s v="   Banda transportadora con extensiones robótica chasis"/>
-        <s v="Motorreductor"/>
-        <s v="Servomotor x3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Precio" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="110000"/>
-    </cacheField>
-    <cacheField name="Enlace" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jesús Gabriel Santana Mestra" refreshedDate="45017.529833449073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{EA6D3F10-CC82-4C33-B941-52F1D21A3EA6}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Cotización_Camara10"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Producto" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Arducam"/>
-        <s v="Tarjeta _x000a_Raspberry _x000a_Pi Pico W"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Precio" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="44000" maxValue="62400"/>
-    </cacheField>
-    <cacheField name="Enlace" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jesús Gabriel Santana Mestra" refreshedDate="45025.929572222223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{618B7E07-C0CB-4B92-A93F-F9AC54E47AE0}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Circuito_Potencia"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Producto" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Cubos Didácticos Letras Números Madera 3cm3"/>
-        <s v="Canasta trash "/>
-        <s v="Bolsa Tela (Materia prima: TELA) METRO"/>
-        <s v="Adpatador AC-DC 12 V"/>
-        <s v="Lija Tela de banda para cinta "/>
-        <s v="Motor Motorreductor 3V-12V"/>
-        <s v="Madera(Trilplex)METRO CUADRADO"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Unidades" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
-        <n v="1"/>
-        <n v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Precio/u" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="21250" count="7">
-        <n v="21250"/>
-        <n v="5000"/>
-        <n v="8250"/>
-        <n v="20000"/>
-        <n v="14850"/>
-        <n v="9000"/>
-        <n v="19765"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Precio Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="21250"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jesús Gabriel Santana Mestra" refreshedDate="45025.946610416664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{F7D17600-D208-46EC-97B6-841D993EBD80}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Cotización_Data_Logging" sheet="Cotizaciones"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Producto" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="PANTALLA LCD TF     (Opción 1)"/>
-        <s v="PANTALLA LCD TF     (Opcion 2)"/>
-        <m/>
-        <s v="PANTALLA LCD TF" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Precio" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="96251.96" maxValue="128000"/>
-    </cacheField>
-    <cacheField name="Enlace" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <x v="0"/>
-    <n v="110000"/>
-    <s v="https://articulo.mercadolibre.com.co/MCO-534477586-banda-transportadora-con-extensiones-robotica-chasis-_JM"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10000"/>
-    <s v="https://articulo.mercadolibre.com.co/MCO-830102572-motorreductor-3-9v-motor-dc-con-caja-reductora-_JM"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="11900"/>
-    <s v="https://articulo.mercadolibre.com.co/MCO-452021161-mini-micro-servomotor-sg90-9g-tower-pro-arduino-robotica-_JM_x000a_"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <x v="0"/>
-    <n v="62400"/>
-    <s v="https://www.amazon.com/-/es/Arducam-c%C3%A1mara-Raspberry-m%C3%B3dulo-HM01B0/dp/B093KBQB1C"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="44000"/>
-    <s v="https://www.didacticaselectronicas.com/index.php/sistemas-de-desarrollo/raspberry/tarjetas-raspberry/tarjeta-raspberry-pico-w-tarjetas-de-desarrollo-sistemas-de-desarrollo-minipc-mini-computadores-raspberry-pi-pico-w-wireless-detail"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="21250"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="5000"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="16500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="20000"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="14850"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="18000"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="19765"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <x v="0"/>
-    <n v="96251.96"/>
-    <s v="https://www.vistronica.com/display/pantalla-lcd-tft-touch-35-inch-320x480-px-para-raspberry-pi-detail.html "/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="128000"/>
-    <s v="https://articulo.mercadolibre.com.co/MCO-1340509308-pantalla-lcd-tft-touch-35-320x480px-raspberry-pi-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=ddc25455-99ed-469f-89c5-f1e8fac4b9f2&amp;gid=1&amp;pid=2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F53D7FEF-3860-4641-822E-978347CC6D1D}" name="Tabla dinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="N.A." updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A10:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Precio" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D66BB06-695D-44C1-8609-7DFA9C2AADCA}" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A2:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Precio" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4208D30-7244-4DF8-9693-59ED62DF3B4A}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A24:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="3" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Precio Total" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8B5666-BBF6-41F4-A7A8-B862FD73DF2A}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
-  <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Precio" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="47">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="46">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E011B5-4DE7-417D-B516-2BD69039B2D1}" name="Cotización_Mecánica" displayName="Cotización_Mecánica" ref="C5:E9" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4135A5CD-C1B9-4FFE-809A-6B7C5698F18E}" name="Tabla3" displayName="Tabla3" ref="D5:G12" totalsRowCount="1" headerRowDxfId="9" dataDxfId="6" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="D5:G11" xr:uid="{4135A5CD-C1B9-4FFE-809A-6B7C5698F18E}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{17B4E1BF-304C-4375-8303-2F1EA8C94B8C}" name="Producto" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E11F463D-27CB-46D6-B9AE-9D313864F08C}" name="Unidades" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Tabla3[Unidades])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A68207CC-570A-40A1-996A-0DD3A06F551A}" name="Precio/u" totalsRowLabel="N.A." dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8E786D7A-E575-44FD-898B-653A2840C22A}" name="Precio Total" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E011B5-4DE7-417D-B516-2BD69039B2D1}" name="Cotización_Mecánica" displayName="Cotización_Mecánica" ref="C5:E9" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="C5:E8" xr:uid="{84E011B5-4DE7-417D-B516-2BD69039B2D1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7689841C-1FF6-479D-9D28-0A8F6E6BB3AD}" name="Producto" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{9377EF69-E094-42A8-9B10-B02027D30949}" name="Precio" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{7689841C-1FF6-479D-9D28-0A8F6E6BB3AD}" name="Producto" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{9377EF69-E094-42A8-9B10-B02027D30949}" name="Precio" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUM(Cotización_Mecánica[Precio])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23E372F9-351D-4937-AA64-85D03EFC813F}" name="Enlace" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{23E372F9-351D-4937-AA64-85D03EFC813F}" name="Enlace" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C372C8F5-7F0E-42A1-BD24-A6F765A34430}" name="Cotización_Data_Logging" displayName="Cotización_Data_Logging" ref="G5:I9" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31" totalsRowBorderDxfId="30">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C372C8F5-7F0E-42A1-BD24-A6F765A34430}" name="Cotización_Data_Logging" displayName="Cotización_Data_Logging" ref="G5:I9" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="G5:I8" xr:uid="{C372C8F5-7F0E-42A1-BD24-A6F765A34430}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0D5E1435-209B-4C0D-BEB8-D26F8A0DD50F}" name="Producto" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{EE316520-A478-4E41-A754-B309D40C25C6}" name="Precio" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{0D5E1435-209B-4C0D-BEB8-D26F8A0DD50F}" name="Producto" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{EE316520-A478-4E41-A754-B309D40C25C6}" name="Precio" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <totalsRowFormula>SUM(Cotización_Data_Logging[Precio])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FC0107C7-1BDD-40C9-95BF-059048722698}" name="Enlace" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FC0107C7-1BDD-40C9-95BF-059048722698}" name="Enlace" dataDxfId="38" totalsRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7467A9C7-7C16-4BE0-932E-32ED5C487A79}" name="Cotización_Camara" displayName="Cotización_Camara" ref="K5:M9" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21" totalsRowBorderDxfId="20">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7467A9C7-7C16-4BE0-932E-32ED5C487A79}" name="Cotización_Camara" displayName="Cotización_Camara" ref="K5:M9" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="K5:M8" xr:uid="{7467A9C7-7C16-4BE0-932E-32ED5C487A79}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{57ED69B0-E72A-401B-BB1D-EB57AFA400F6}" name="Producto" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7A37B897-9E19-40D9-8321-042FE603768F}" name="Precio" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{57ED69B0-E72A-401B-BB1D-EB57AFA400F6}" name="Producto" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7A37B897-9E19-40D9-8321-042FE603768F}" name="Precio" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
       <totalsRowFormula>SUM(Cotización_Camara[Precio])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B1EE7C8F-F3B7-4D2A-A6D4-F241FCCD2CDF}" name="Enlace" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B1EE7C8F-F3B7-4D2A-A6D4-F241FCCD2CDF}" name="Enlace" dataDxfId="28" totalsRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{31E176FF-F00A-4517-BF56-E4C947C44058}" name="Circuito_Potencia" displayName="Circuito_Potencia" ref="C15:F23" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{31E176FF-F00A-4517-BF56-E4C947C44058}" name="Circuito_Potencia" displayName="Circuito_Potencia" ref="C15:F23" totalsRowCount="1" headerRowDxfId="26" dataDxfId="24" totalsRowDxfId="22" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="21">
   <autoFilter ref="C15:F22" xr:uid="{31E176FF-F00A-4517-BF56-E4C947C44058}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2048,10 +1852,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4A473C45-7D0F-467E-971A-B2A3A3589BA4}" name="Producto" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EEC731D5-8005-4EE9-B3A5-D4C828DFEB3E}" name="Unidades" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{33755AA5-206C-47D2-872F-1EB024CFE759}" name="Precio/u" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4EFFF329-D29F-49DE-B635-5134517D1CB8}" name="Precio Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{4A473C45-7D0F-467E-971A-B2A3A3589BA4}" name="Producto" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{EEC731D5-8005-4EE9-B3A5-D4C828DFEB3E}" name="Unidades" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{33755AA5-206C-47D2-872F-1EB024CFE759}" name="Precio/u" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{4EFFF329-D29F-49DE-B635-5134517D1CB8}" name="Precio Total" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(AND(D16&lt;&gt;"",E16&lt;&gt;""),D16*E16,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2355,219 +2159,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1C804-9B2E-4607-B480-77E119609803}">
-  <dimension ref="A2:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A78A9BB-D3EF-40E9-BE1E-E29367C1F1FA}">
+  <dimension ref="D3:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>110000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="G6" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>11900</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="G8" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>62400</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44000</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
-        <v>96251.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>224251.96000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5">
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5">
-        <v>106400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="5">
-        <v>21250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5">
-        <v>19765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5">
-        <v>115365</v>
+      <c r="G11" s="3">
+        <f>Tabla3[[#This Row],[Unidades]]*Tabla3[[#This Row],[Precio/u]]</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="33">
+        <f>SUM(Tabla3[Unidades])</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="37">
+        <f>SUBTOTAL(109,Tabla3[Precio Total])</f>
+        <v>390100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2575,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30976D0E-A5F0-41FE-8AD3-B66F9BF828CE}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,112 +2340,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="19"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="19"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2707,9 +2455,9 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3">
         <v>96251.96</v>
@@ -2717,21 +2465,21 @@
       <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="3">
         <v>62400</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2741,9 +2489,9 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3">
         <v>128000</v>
@@ -2751,21 +2499,21 @@
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" s="3">
         <v>44000</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2775,187 +2523,187 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="1"/>
       <c r="L8" s="3"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="19"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3">
         <f>SUM(Cotización_Mecánica[Precio])</f>
         <v>131900</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="3">
         <f>SUM(Cotización_Data_Logging[Precio])</f>
         <v>224251.96000000002</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="3">
         <f>SUM(Cotización_Camara[Precio])</f>
         <v>106400</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="19"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>21250</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <f t="shared" ref="F16:F22" si="0">IF(AND(D16&lt;&gt;"",E16&lt;&gt;""),D16*E16,"")</f>
         <v>21250</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>5000</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>8250</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>20000</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>14850</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="14">
         <f t="shared" si="0"/>
         <v>14850</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>9000</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>19765</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
         <v>19765</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14">
         <f>SUBTOTAL(109,Circuito_Potencia[Precio Total])</f>
         <v>115365</v>
       </c>
